--- a/pop/pop.xlsx
+++ b/pop/pop.xlsx
@@ -16,26 +16,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>JZCB121907000633</t>
-  </si>
-  <si>
-    <t>JZCB061907000633</t>
-  </si>
-  <si>
-    <t>JZCB091907000633</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>JZCB061901000056</t>
+  </si>
+  <si>
+    <t>JZCB061901000060</t>
+  </si>
+  <si>
+    <t>JZCB061901000063</t>
+  </si>
+  <si>
+    <t>JZCB061901000066</t>
+  </si>
+  <si>
+    <t>JZCB061901000071</t>
+  </si>
+  <si>
+    <t>JZCB061901000076</t>
+  </si>
+  <si>
+    <t>JZCB061901000082</t>
+  </si>
+  <si>
+    <t>JZCB061901000088</t>
+  </si>
+  <si>
+    <t>JZCB061901000090</t>
+  </si>
+  <si>
+    <t>JZCB061901000112</t>
+  </si>
+  <si>
+    <t>JZCB061901000116</t>
+  </si>
+  <si>
+    <t>JZCB061901000124</t>
+  </si>
+  <si>
+    <t>JZCB061901000126</t>
+  </si>
+  <si>
+    <t>JZCB061901000148</t>
+  </si>
+  <si>
+    <t>JZCB061901000162</t>
+  </si>
+  <si>
+    <t>JZCB061901000163</t>
+  </si>
+  <si>
+    <t>JZCB061901000170</t>
+  </si>
+  <si>
+    <t>JZCB061901000171</t>
+  </si>
+  <si>
+    <t>JZCB061901000179</t>
+  </si>
+  <si>
+    <t>JZCB061901000182</t>
+  </si>
+  <si>
+    <t>JZCB061901000186</t>
+  </si>
+  <si>
+    <t>JZCB061901000189</t>
+  </si>
+  <si>
+    <t>JZCB061901000195</t>
+  </si>
+  <si>
+    <t>JZCB061901000197</t>
+  </si>
+  <si>
+    <t>JZCB061901000207</t>
+  </si>
+  <si>
+    <t>JZCB061901000211</t>
+  </si>
+  <si>
+    <t>JZCB061901000213</t>
+  </si>
+  <si>
+    <t>JZCB061901000216</t>
+  </si>
+  <si>
+    <t>JZCB061901000221</t>
+  </si>
+  <si>
+    <t>JZCB061901000223</t>
+  </si>
+  <si>
+    <t>JZCB061901000227</t>
+  </si>
+  <si>
+    <t>JZCB061901000234</t>
+  </si>
+  <si>
+    <t>JZCB061901000242</t>
+  </si>
+  <si>
+    <t>JZCB061901000243</t>
+  </si>
+  <si>
+    <t>JZCB061901000246</t>
+  </si>
+  <si>
+    <t>JZCB061901000248</t>
+  </si>
+  <si>
+    <t>JZCB061901000255</t>
+  </si>
+  <si>
+    <t>JZCB061901000262</t>
+  </si>
+  <si>
+    <t>JZCB061901000263</t>
+  </si>
+  <si>
+    <t>JZCB061901000269</t>
+  </si>
+  <si>
+    <t>JZCB061901000271</t>
+  </si>
+  <si>
+    <t>JZCB061901000273</t>
+  </si>
+  <si>
+    <t>JZCB061901000274</t>
+  </si>
+  <si>
+    <t>JZCB061901000275</t>
+  </si>
+  <si>
+    <t>JZCB061901000284</t>
+  </si>
+  <si>
+    <t>JZCB061901000285</t>
+  </si>
+  <si>
+    <t>JZCB061901000289</t>
+  </si>
+  <si>
+    <t>JZCB061901000290</t>
+  </si>
+  <si>
+    <t>JZCB061901000291</t>
+  </si>
+  <si>
+    <t>JZCB061901000294</t>
+  </si>
+  <si>
+    <t>JZCB121907000027</t>
+  </si>
+  <si>
+    <t>JZCB121907000031</t>
+  </si>
+  <si>
+    <t>JZCB121907000032</t>
+  </si>
+  <si>
+    <t>JZCB121907000034</t>
+  </si>
+  <si>
+    <t>JZCB121907000037</t>
+  </si>
+  <si>
+    <t>JZCB121907000038</t>
+  </si>
+  <si>
+    <t>JZCB121907000041</t>
+  </si>
+  <si>
+    <t>JZCB121907000045</t>
+  </si>
+  <si>
+    <t>JZCB121907000048</t>
+  </si>
+  <si>
+    <t>JZCB121907000049</t>
+  </si>
+  <si>
+    <t>JZCB121907000050</t>
+  </si>
+  <si>
+    <t>JZCB121907000051</t>
+  </si>
+  <si>
+    <t>JZCB121907000052</t>
+  </si>
+  <si>
+    <t>JZCB121907000054</t>
+  </si>
+  <si>
+    <t>JZCB121907000055</t>
+  </si>
+  <si>
+    <t>JZCB121907000058</t>
+  </si>
+  <si>
+    <t>JZCB121907000061</t>
+  </si>
+  <si>
+    <t>JZCB121907000062</t>
+  </si>
+  <si>
+    <t>JZCB121907000063</t>
+  </si>
+  <si>
+    <t>JZCB121907000065</t>
+  </si>
+  <si>
+    <t>JZCB121907000066</t>
+  </si>
+  <si>
+    <t>JZCB121907000069</t>
+  </si>
+  <si>
+    <t>JZCB121907000070</t>
+  </si>
+  <si>
+    <t>JZCB121907000071</t>
+  </si>
+  <si>
+    <t>JZCB121907000072</t>
+  </si>
+  <si>
+    <t>JZCB121907000074</t>
+  </si>
+  <si>
+    <t>JZCB121907000075</t>
+  </si>
+  <si>
+    <t>JZCB121907000076</t>
+  </si>
+  <si>
+    <t>JZCB121907000077</t>
+  </si>
+  <si>
+    <t>JZCB121907000080</t>
+  </si>
+  <si>
+    <t>JZCB121907000081</t>
+  </si>
+  <si>
+    <t>JZCB121907000083</t>
+  </si>
+  <si>
+    <t>JZCB121907000089</t>
+  </si>
+  <si>
+    <t>JZCB121907000090</t>
+  </si>
+  <si>
+    <t>JZCB121907000093</t>
+  </si>
+  <si>
+    <t>JZCB121907000094</t>
+  </si>
+  <si>
+    <t>JZCB121907000096</t>
+  </si>
+  <si>
+    <t>JZCB121907000097</t>
+  </si>
+  <si>
+    <t>JZCB121907000098</t>
+  </si>
+  <si>
+    <t>JZCB121907000099</t>
+  </si>
+  <si>
+    <t>JZCB121907000101</t>
+  </si>
+  <si>
+    <t>JZCB121907000102</t>
+  </si>
+  <si>
+    <t>JZCB121907000103</t>
+  </si>
+  <si>
+    <t>JZCB121907000105</t>
+  </si>
+  <si>
+    <t>JZCB121907000108</t>
+  </si>
+  <si>
+    <t>JZCB121907000112</t>
+  </si>
+  <si>
+    <t>JZCB121907000114</t>
+  </si>
+  <si>
+    <t>JZCB121907000115</t>
+  </si>
+  <si>
+    <t>JZCB121907000117</t>
+  </si>
+  <si>
+    <t>JZCB121907000119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -46,10 +338,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -61,14 +368,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +389,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -91,19 +444,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,37 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -157,38 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -205,67 +497,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,115 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +688,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,10 +739,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -446,56 +788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,141 +808,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,6 +1009,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1001,132 +1314,550 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.25" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="17.25" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:1">
-      <c r="A36" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="17.25" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:1">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:1">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A50">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1160,6 +1891,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
